--- a/KaiH/org.xlsx
+++ b/KaiH/org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Datascience\_ext\constructor-nukes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Datascience\_ext\constructor-nukes\KaiH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05650B3-FA83-4ED5-9604-A5347AC0C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EDC913-A4BB-4550-A8D7-2CCBC93C0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FBE62F-CD28-405B-B463-0C36994A9B7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FBE62F-CD28-405B-B463-0C36994A9B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Github Ressource:</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>16:40 Review Ansam</t>
+  </si>
+  <si>
+    <t>Review - Artifacts  / Discuss Plot Script Architecture</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,11 +910,11 @@
         <v>32</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/KaiH/org.xlsx
+++ b/KaiH/org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Datascience\_ext\constructor-nukes\KaiH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EDC913-A4BB-4550-A8D7-2CCBC93C0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98297A4A-B1C6-48AD-BCC1-1D582E65E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FBE62F-CD28-405B-B463-0C36994A9B7B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Github Ressource:</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Review - Artifacts  / Discuss Plot Script Architecture</t>
+  </si>
+  <si>
+    <t>see right</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="10" t="s">
@@ -1016,9 +1019,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
